--- a/tests/artifact/script/GNUKhata.xlsx
+++ b/tests/artifact/script/GNUKhata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="796">
   <si>
     <t>target</t>
   </si>
@@ -2306,19 +2306,99 @@
     <t>reason</t>
   </si>
   <si>
-    <t>Positive - Authentication Rest Controller - POST - /security/auth</t>
+    <t>Login Token</t>
+  </si>
+  <si>
+    <t>Get the login Token</t>
+  </si>
+  <si>
+    <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|getGKUserToken)</t>
+  </si>
+  <si>
+    <t>username=${login.username}
+password=${login.password}</t>
+  </si>
+  <si>
+    <t>response=response</t>
+  </si>
+  <si>
+    <t>gkusertoken</t>
+  </si>
+  <si>
+    <t>[JSON(${response}.body) =&gt; extract(token)]</t>
+  </si>
+  <si>
+    <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|getGKToken)</t>
+  </si>
+  <si>
+    <t>gkusertoken=${gkusertoken}
+orgcode=${login.orgcode}</t>
+  </si>
+  <si>
+    <t>gktoken</t>
+  </si>
+  <si>
+    <t>jSessionId</t>
+  </si>
+  <si>
+    <t>${response}.cookies.JSESSIONID.value</t>
+  </si>
+  <si>
+    <t>the description of this test scenario goes here…</t>
+  </si>
+  <si>
+    <t>your name</t>
+  </si>
+  <si>
+    <t>Set headers</t>
+  </si>
+  <si>
+    <t>Set the common headers (Authorization, Cookie)</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>"${token}"</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>JSESSIONID=${jSessionId}</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>Request</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>${api.baseUrl}login/user</t>
+    <t>${api.baseUrl}gkuser</t>
+  </si>
+  <si>
+    <t>Save the random username</t>
+  </si>
+  <si>
+    <t>randomUsername</t>
+  </si>
+  <si>
+    <t>test[NUMBER(${num})=&gt;randomDigits(5)]</t>
   </si>
   <si>
     <t>body</t>
   </si>
   <si>
-    <t>{"username":"${login.username}","userpassword":"${login.password}"}</t>
+    <t xml:space="preserve">{
+    "username": "${randomUsername}",
+    "userpassword": "${password}",
+    "userquestion": "${question}",
+    "useranswer": "${answer}"
+}
+</t>
   </si>
   <si>
     <t>${url}</t>
@@ -2330,7 +2410,13 @@
     <t>response</t>
   </si>
   <si>
-    <t>${response}</t>
+    <t>${response}.body</t>
+  </si>
+  <si>
+    <t>[JSON(${response}.body) =&gt; extract(gkstatus)]</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|validateResponse)</t>
@@ -2342,75 +2428,17 @@
 responseBody=${response}.body
 expectedReturnCode=200
 expectedResponseTime=3000
-expectedContentType=application/json;charset=UTF-8
-schema=${schema.path}\authentication-rest-controller.post.security-auth.schema.txt</t>
-  </si>
-  <si>
-    <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|getToken)</t>
-  </si>
-  <si>
-    <t>username=${login.username}
-password=${login.password}</t>
-  </si>
-  <si>
-    <t>response=response</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>[JSON(${response}.body) =&gt; extract(token)]</t>
-  </si>
-  <si>
-    <t>${token}</t>
-  </si>
-  <si>
-    <t>jSessionId</t>
-  </si>
-  <si>
-    <t>${response}.cookies.JSESSIONID.value</t>
-  </si>
-  <si>
-    <t>the description of this test scenario goes here…</t>
-  </si>
-  <si>
-    <t>your name</t>
-  </si>
-  <si>
-    <t>Set headers</t>
-  </si>
-  <si>
-    <t>Set the common headers (Authorization, Cookie)</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>"${token}"</t>
-  </si>
-  <si>
-    <t>Cookie</t>
-  </si>
-  <si>
-    <t>JSESSIONID=${jSessionId}</t>
-  </si>
-  <si>
-    <t>Create User</t>
-  </si>
-  <si>
-    <t>Request</t>
-  </si>
-  <si>
-    <t>${api.baseUrl}gkuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "username": "test[NUMBER(${num})=&gt;randomDigits(5)]",
-    "userpassword": "${password}",
-    "userquestion": "${question}",
-    "useranswer": "${answer}"
-}
-</t>
+expectedContentType=application/json
+schema=${schema.path}\CreateUser.txt</t>
+  </si>
+  <si>
+    <t>Create user with exisiting ID</t>
+  </si>
+  <si>
+    <t>Duplicate username should not be created</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>actualReturnCode=${response}.returnCode
@@ -2419,41 +2447,8 @@
 responseBody=${response}.body
 expectedReturnCode=200
 expectedResponseTime=3000
-expectedContentType=application/json;
-schema=${schema.path}\CreateUser.txt</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>[JSON(${response}.body) =&gt; extract(gkstatus[0])]</t>
-  </si>
-  <si>
-    <t>${status}</t>
-  </si>
-  <si>
-    <t>Create user with exisiting ID</t>
-  </si>
-  <si>
-    <t>Duplicate username should not be created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "username": "${username}",
-    "userpassword": "${password}",
-    "userquestion": "${question}",
-    "useranswer": "${answer}"
-}
-</t>
-  </si>
-  <si>
-    <t>gkstatus</t>
-  </si>
-  <si>
-    <t>[JSON(${response}.body) =&gt; extract(gkstatus)]</t>
-  </si>
-  <si>
-    <t>${gkstatus}</t>
+expectedContentType=application/json
+schema=${schema.path}\DuplicateUser.txt</t>
   </si>
   <si>
     <t>Clear the headers</t>
@@ -2468,7 +2463,7 @@
     <t>Get API to fetch org details</t>
   </si>
   <si>
-    <t>gktoken</t>
+    <t>${response}</t>
   </si>
   <si>
     <t>200</t>
@@ -2483,12 +2478,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2575,38 +2570,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2621,16 +2609,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2646,7 +2658,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2654,37 +2673,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2697,23 +2700,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2740,7 +2735,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,19 +2795,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,31 +2873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2818,31 +2885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2854,73 +2909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,37 +2959,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3004,6 +2979,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3038,176 +3022,187 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3249,14 +3244,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3403,77 +3398,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6464,10 +6437,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD197"/>
+  <dimension ref="A1:XFD187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6606,21 +6579,23 @@
         <v>747</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="C5" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>748</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>749</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="F5" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>751</v>
+      </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -23009,10 +22984,10 @@
         <v>471</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>750</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>751</v>
+        <v>752</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>753</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="31"/>
@@ -23024,23 +22999,23 @@
       <c r="N6" s="23"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="7" s="1" customFormat="1" ht="42" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="46" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>752</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>755</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -23051,19 +23026,21 @@
       <c r="N7" s="23"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>755</v>
-      </c>
-      <c r="F8" s="47"/>
+        <v>756</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>753</v>
+      </c>
       <c r="G8" s="47"/>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -23074,20 +23051,20 @@
       <c r="N8" s="23"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="130.5" spans="1:15">
+    <row r="9" customFormat="1" ht="15.5" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>756</v>
-      </c>
-      <c r="F9" s="49" t="s">
+      <c r="D9" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>757</v>
+      </c>
+      <c r="F9" t="s">
+        <v>758</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="31"/>
@@ -23099,24 +23076,14 @@
       <c r="N9" s="23"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" customFormat="1" ht="29" spans="1:15">
+    <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>758</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>759</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>760</v>
-      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="43"/>
@@ -23126,22 +23093,14 @@
       <c r="N10" s="23"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" s="56" customFormat="1" ht="15.5" spans="1:15">
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>761</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>762</v>
-      </c>
-      <c r="G11" s="47"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="43"/>
@@ -23151,20 +23110,14 @@
       <c r="N11" s="23"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" s="56" customFormat="1" ht="15.5" spans="1:15">
+    <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>763</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="47"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="43"/>
@@ -23174,22 +23127,14 @@
       <c r="N12" s="23"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" customFormat="1" ht="15.5" spans="1:15">
+    <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="F13" t="s">
-        <v>765</v>
-      </c>
-      <c r="G13" s="47"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="43"/>
@@ -23199,73 +23144,73 @@
       <c r="N13" s="23"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="40"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="40"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="40"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="40"/>
+    <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
@@ -23388,7 +23333,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -26157,176 +26102,6 @@
       <c r="N187" s="23"/>
       <c r="O187" s="22"/>
     </row>
-    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="31"/>
-      <c r="F188" s="31"/>
-      <c r="G188" s="31"/>
-      <c r="H188" s="31"/>
-      <c r="I188" s="31"/>
-      <c r="J188" s="43"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="31"/>
-      <c r="E189" s="31"/>
-      <c r="F189" s="31"/>
-      <c r="G189" s="31"/>
-      <c r="H189" s="31"/>
-      <c r="I189" s="31"/>
-      <c r="J189" s="43"/>
-      <c r="K189" s="22"/>
-      <c r="L189" s="23"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="31"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="31"/>
-      <c r="H190" s="31"/>
-      <c r="I190" s="31"/>
-      <c r="J190" s="43"/>
-      <c r="K190" s="22"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="31"/>
-      <c r="H191" s="31"/>
-      <c r="I191" s="31"/>
-      <c r="J191" s="43"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="31"/>
-      <c r="H192" s="31"/>
-      <c r="I192" s="31"/>
-      <c r="J192" s="43"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="31"/>
-      <c r="H193" s="31"/>
-      <c r="I193" s="31"/>
-      <c r="J193" s="43"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="31"/>
-      <c r="E194" s="31"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="31"/>
-      <c r="H194" s="31"/>
-      <c r="I194" s="31"/>
-      <c r="J194" s="43"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="22"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="31"/>
-      <c r="E195" s="31"/>
-      <c r="F195" s="31"/>
-      <c r="G195" s="31"/>
-      <c r="H195" s="31"/>
-      <c r="I195" s="31"/>
-      <c r="J195" s="43"/>
-      <c r="K195" s="22"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="22"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="30"/>
-      <c r="D196" s="31"/>
-      <c r="E196" s="31"/>
-      <c r="F196" s="31"/>
-      <c r="G196" s="31"/>
-      <c r="H196" s="31"/>
-      <c r="I196" s="31"/>
-      <c r="J196" s="43"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="23"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="23"/>
-      <c r="O196" s="22"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="30"/>
-      <c r="D197" s="31"/>
-      <c r="E197" s="31"/>
-      <c r="F197" s="31"/>
-      <c r="G197" s="31"/>
-      <c r="H197" s="31"/>
-      <c r="I197" s="31"/>
-      <c r="J197" s="43"/>
-      <c r="K197" s="22"/>
-      <c r="L197" s="23"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="23"/>
-      <c r="O197" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -26334,44 +26109,55 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6:N15">
+  <conditionalFormatting sqref="N9">
     <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N8">
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N98:N197">
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N88:N187">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N88,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N16:N97">
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N1 N3:N4 N10:N87">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C16 C17 C18:C197">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10:C187">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D16 D17 D18:D197">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10:D187">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -26383,12 +26169,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26442,7 +26228,7 @@
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="15" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -26452,7 +26238,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="22"/>
@@ -26525,10 +26311,10 @@
     </row>
     <row r="5" s="44" customFormat="1" spans="1:15">
       <c r="A5" s="19" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>35</v>
@@ -26537,10 +26323,10 @@
         <v>263</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
@@ -26562,10 +26348,10 @@
         <v>263</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
@@ -26579,10 +26365,10 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>5</v>
@@ -26591,10 +26377,10 @@
         <v>471</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
@@ -26606,20 +26392,22 @@
       <c r="N7" s="23"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="116" spans="1:15">
+    <row r="8" s="1" customFormat="1" ht="34" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="31" t="s">
         <v>471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -26631,24 +26419,22 @@
       <c r="N8" s="23"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="9" s="1" customFormat="1" ht="101.5" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>752</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>754</v>
-      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="43"/>
@@ -26662,16 +26448,20 @@
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="30" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>755</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="31"/>
+        <v>356</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>776</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>778</v>
+      </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="43"/>
@@ -26681,21 +26471,19 @@
       <c r="N10" s="23"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="202" customHeight="1" spans="1:15">
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>756</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>778</v>
-      </c>
+      <c r="D11" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
@@ -26706,20 +26494,20 @@
       <c r="N11" s="23"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="29" spans="1:15">
+    <row r="12" s="1" customFormat="1" spans="1:15">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
@@ -26731,19 +26519,21 @@
       <c r="N12" s="23"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:15">
+    <row r="13" s="1" customFormat="1" ht="202" customHeight="1" spans="1:15">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="F13" s="49"/>
+      <c r="D13" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>782</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>783</v>
+      </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -26756,10 +26546,10 @@
     </row>
     <row r="14" s="44" customFormat="1" ht="101.5" spans="1:15">
       <c r="A14" s="48" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>5</v>
@@ -26768,10 +26558,10 @@
         <v>471</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
@@ -26793,13 +26583,13 @@
         <v>356</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -26810,19 +26600,21 @@
       <c r="N15" s="53"/>
       <c r="O15" s="52"/>
     </row>
-    <row r="16" s="44" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="16" s="44" customFormat="1" ht="80" customHeight="1" spans="1:15">
       <c r="A16" s="48"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>536</v>
+        <v>49</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>755</v>
-      </c>
-      <c r="F16" s="51"/>
+        <v>780</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>786</v>
+      </c>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -26843,10 +26635,10 @@
         <v>447</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
@@ -26858,21 +26650,21 @@
       <c r="N17" s="53"/>
       <c r="O17" s="52"/>
     </row>
-    <row r="18" s="44" customFormat="1" ht="202" customHeight="1" spans="1:15">
+    <row r="18" s="44" customFormat="1" ht="80" customHeight="1" spans="1:15">
       <c r="A18" s="48"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="45" t="s">
+        <v>788</v>
+      </c>
       <c r="C18" s="46" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>471</v>
+        <v>107</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>785</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>786</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="F18" s="51"/>
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -26883,20 +26675,8 @@
       <c r="N18" s="53"/>
       <c r="O18" s="52"/>
     </row>
-    <row r="19" s="44" customFormat="1" ht="80" customHeight="1" spans="1:15">
+    <row r="19" s="44" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="48"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>787</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="47"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="49"/>
@@ -26906,41 +26686,39 @@
       <c r="N19" s="53"/>
       <c r="O19" s="52"/>
     </row>
-    <row r="20" s="44" customFormat="1" ht="80" customHeight="1" spans="1:15">
-      <c r="A20" s="48"/>
-      <c r="B20" s="45" t="s">
-        <v>788</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>789</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="52"/>
-    </row>
-    <row r="21" s="44" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="48"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="52"/>
+    <row r="20" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
@@ -26995,7 +26773,7 @@
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -27029,7 +26807,7 @@
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="32"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -29934,40 +29712,6 @@
       <c r="N197" s="23"/>
       <c r="O197" s="22"/>
     </row>
-    <row r="198" ht="23" customHeight="1" spans="1:15">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="30"/>
-      <c r="D198" s="31"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="31"/>
-      <c r="J198" s="43"/>
-      <c r="K198" s="22"/>
-      <c r="L198" s="23"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="23"/>
-      <c r="O198" s="22"/>
-    </row>
-    <row r="199" ht="23" customHeight="1" spans="1:15">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="30"/>
-      <c r="D199" s="31"/>
-      <c r="E199" s="31"/>
-      <c r="F199" s="31"/>
-      <c r="G199" s="31"/>
-      <c r="H199" s="31"/>
-      <c r="I199" s="31"/>
-      <c r="J199" s="43"/>
-      <c r="K199" s="22"/>
-      <c r="L199" s="23"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="23"/>
-      <c r="O199" s="22"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -29976,50 +29720,72 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N5:N6">
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N100:N199">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N98:N197">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N7:N99">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N1 N3:N4 N7 N9:N15 N17:N97">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="13" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9 C10 C11 C12 C13 C15 C16 C17 C18 C19 C20 C5:C6 C22:C199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C10 C11 C12 C13 C15 C16 C17 C18 C5:C6 C20:C197">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D9 D10 D11 D12 D13 D15 D16 D17 D18 D19 D20 D5:D6 D22:D199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D8 D10 D11 D12 D13 D15 D16 D17 D18 D5:D6 D20:D197">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" display="${api.baseUrl}gkuser" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E9" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E10" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
     <hyperlink ref="E15" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30033,7 +29799,7 @@
   <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -30085,7 +29851,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="15" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -30095,7 +29861,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="22"/>
@@ -30180,10 +29946,10 @@
         <v>263</v>
       </c>
       <c r="E5" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>792</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>755</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -30205,7 +29971,7 @@
         <v>72</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>793</v>
